--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3325.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3325.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.838909893008047</v>
+        <v>1.809499859809875</v>
       </c>
       <c r="B1">
-        <v>1.083611168653718</v>
+        <v>4.704745292663574</v>
       </c>
       <c r="C1">
-        <v>1.651046220305021</v>
+        <v>3.710319995880127</v>
       </c>
       <c r="D1">
-        <v>6.864436125132214</v>
+        <v>0.9018482565879822</v>
       </c>
       <c r="E1">
-        <v>4.139509854545246</v>
+        <v>0.4733693599700928</v>
       </c>
     </row>
   </sheetData>
